--- a/Sprint4/Kostnaðaráætlun - Þróun hugbúnaðar_lok.xlsx
+++ b/Sprint4/Kostnaðaráætlun - Þróun hugbúnaðar_lok.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukka\github\KastalaLeikur3\Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D397D5F5-B6F6-443F-A61F-882AF85350F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD54D1-FED3-4C60-AE60-DA8CC191A65C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{E4E1829A-875C-4F6D-95E8-456A6F3B8A6A}"/>
   </bookViews>
@@ -323,6 +323,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,12 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,26 +688,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="28"/>
+      <c r="H1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -848,28 +848,28 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="20">
         <f>SUM(B5,D5,F5,H5)</f>
         <v>808000</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="22">
         <f>SUM(C5,E5,G5,I5)</f>
         <v>730000</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="24">
         <f>I11-I12</f>
         <v>78000</v>
       </c>
